--- a/3. Intermediate Project/realestate_multiple_pages.xlsx
+++ b/3. Intermediate Project/realestate_multiple_pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="282">
   <si>
     <t>Street</t>
   </si>
@@ -31,712 +31,835 @@
     <t>Price</t>
   </si>
   <si>
-    <t>432 Park Ave #PENTHOUSE</t>
-  </si>
-  <si>
-    <t>303 E 57th St #32B</t>
-  </si>
-  <si>
-    <t>27 Prospect Park W #1A</t>
-  </si>
-  <si>
-    <t>303 E 57th St #6D</t>
-  </si>
-  <si>
-    <t>35 Poland Pl</t>
-  </si>
-  <si>
-    <t>1839 E 33rd St</t>
-  </si>
-  <si>
-    <t>35 Hudson Yards #90</t>
-  </si>
-  <si>
-    <t>614 Lincoln Pl</t>
-  </si>
-  <si>
-    <t>111 W 57th St #72</t>
-  </si>
-  <si>
-    <t>12 E 63rd St</t>
-  </si>
-  <si>
-    <t>673 E 22nd St</t>
-  </si>
-  <si>
-    <t>134 W 113th St #5R</t>
-  </si>
-  <si>
-    <t>303 E 57th St #12G</t>
-  </si>
-  <si>
-    <t>575 Park Ave #1403</t>
-  </si>
-  <si>
-    <t>303 E 57th St #37DE</t>
-  </si>
-  <si>
-    <t>555 Taylor Ave</t>
-  </si>
-  <si>
-    <t>45 Stack Dr</t>
-  </si>
-  <si>
-    <t>163-45 Cross Bay Blvd</t>
-  </si>
-  <si>
-    <t>21 Hunter St</t>
-  </si>
-  <si>
-    <t>283 Green Valley Rd</t>
-  </si>
-  <si>
-    <t>69-30 79th St</t>
-  </si>
-  <si>
-    <t>2 Park Pl</t>
-  </si>
-  <si>
-    <t>97 S 8th St #22</t>
-  </si>
-  <si>
-    <t>15 Central Park W #41</t>
-  </si>
-  <si>
-    <t>13-29 Malba Dr</t>
-  </si>
-  <si>
-    <t>67 Cedar Grove Ct</t>
-  </si>
-  <si>
-    <t>100 W 57th St #19M</t>
-  </si>
-  <si>
-    <t>111 Murray St #PH2</t>
-  </si>
-  <si>
-    <t>33 Forrestal Ave</t>
-  </si>
-  <si>
-    <t>420 E 51st St #3D</t>
-  </si>
-  <si>
-    <t>2170 Brigham St #4D</t>
-  </si>
-  <si>
-    <t>303 E 57th St #45A</t>
-  </si>
-  <si>
-    <t>360 W 253rd St</t>
-  </si>
-  <si>
-    <t>3363 Sedgwick Ave #4E</t>
-  </si>
-  <si>
-    <t>489 Main Ave</t>
-  </si>
-  <si>
-    <t>104 Division Ave #26</t>
-  </si>
-  <si>
-    <t>78 Weldon St</t>
-  </si>
-  <si>
-    <t>1105 Winthrop St</t>
-  </si>
-  <si>
-    <t>1270 E 51st St #3E</t>
-  </si>
-  <si>
-    <t>211 E 61st St</t>
-  </si>
-  <si>
-    <t>30 Grove St</t>
-  </si>
-  <si>
-    <t>151 Wooster St #4/5B</t>
-  </si>
-  <si>
-    <t>146-15 123rd Ave</t>
-  </si>
-  <si>
-    <t>32 W 40th St #2D</t>
-  </si>
-  <si>
-    <t>105-14 134th St</t>
-  </si>
-  <si>
-    <t>555 W End Ave #PENTHOUSE</t>
-  </si>
-  <si>
-    <t>23 Norden St</t>
-  </si>
-  <si>
-    <t>360 Penn Ave</t>
-  </si>
-  <si>
-    <t>330 Beach Rd</t>
-  </si>
-  <si>
-    <t>1822 E 35th St</t>
-  </si>
-  <si>
-    <t>11 E 68th St #W</t>
-  </si>
-  <si>
-    <t>115-15 202nd St</t>
-  </si>
-  <si>
-    <t>24 Cooper St #5CD</t>
-  </si>
-  <si>
-    <t>1 Dublin Pl</t>
-  </si>
-  <si>
-    <t>473 Union St</t>
-  </si>
-  <si>
-    <t>30-61 85th St</t>
-  </si>
-  <si>
-    <t>141 Lincoln Pl</t>
-  </si>
-  <si>
-    <t>60 E 83rd St</t>
-  </si>
-  <si>
-    <t>343 E 74th St #1D</t>
-  </si>
-  <si>
-    <t>310 W 122nd St #5W</t>
-  </si>
-  <si>
-    <t>3030 Johnson Ave #4K</t>
-  </si>
-  <si>
-    <t>3329 150th St</t>
-  </si>
-  <si>
-    <t>311 E 3rd St #18</t>
-  </si>
-  <si>
-    <t>291 Demorest Ave</t>
-  </si>
-  <si>
-    <t>21 Cornelia St</t>
-  </si>
-  <si>
-    <t>587 Britton Ave</t>
-  </si>
-  <si>
-    <t>334 W 20th St</t>
-  </si>
-  <si>
-    <t>187 Van Buren St</t>
-  </si>
-  <si>
-    <t>227 E 14th St #5W</t>
-  </si>
-  <si>
-    <t>348 Dewey Ave</t>
-  </si>
-  <si>
-    <t>2254 E 64th St</t>
-  </si>
-  <si>
-    <t>142 Cotter Ave</t>
-  </si>
-  <si>
-    <t>340 Thornycroft Ave</t>
-  </si>
-  <si>
-    <t>18-70 211th St #6D</t>
-  </si>
-  <si>
-    <t>728 E 40th St</t>
-  </si>
-  <si>
-    <t>190 E 72nd St #31B</t>
-  </si>
-  <si>
-    <t>1366 Brooklyn Ave</t>
-  </si>
-  <si>
-    <t>813 8th Ave #4R</t>
-  </si>
-  <si>
-    <t>8 E 62nd St</t>
-  </si>
-  <si>
-    <t>104-20 68th Dr #AA03</t>
-  </si>
-  <si>
-    <t>6838 Nansen St</t>
-  </si>
-  <si>
-    <t>500 W 55th St #1W</t>
-  </si>
-  <si>
-    <t>845 Hollywood Ave</t>
-  </si>
-  <si>
-    <t>1030 77th St</t>
-  </si>
-  <si>
-    <t>395 Smith St #2C</t>
-  </si>
-  <si>
-    <t>2505 Tenbroeck Ave</t>
-  </si>
-  <si>
-    <t>223 E 28th St</t>
-  </si>
-  <si>
-    <t>89-23 202nd St</t>
-  </si>
-  <si>
-    <t>37 Groton St</t>
-  </si>
-  <si>
-    <t>21-57 33rd St #4B</t>
-  </si>
-  <si>
-    <t>Midtown, New York, NY</t>
-  </si>
-  <si>
-    <t>Sutton Place, New York, NY</t>
-  </si>
-  <si>
-    <t>Park Slope, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Emerson Hill, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Marine Park, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Hudson Yards, New York, NY</t>
-  </si>
-  <si>
-    <t>Crown Heights, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Upper East Side, New York, NY</t>
-  </si>
-  <si>
-    <t>Flatbush, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Harlem, New York, NY</t>
-  </si>
-  <si>
-    <t>Soundview, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Arden Heights, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Howard Beach, Howard Beach, NY</t>
-  </si>
-  <si>
-    <t>Grasmere - Concord, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Middle Village, Middle Village, NY</t>
-  </si>
-  <si>
-    <t>Tribeca, New York, NY</t>
-  </si>
-  <si>
-    <t>Williamsburg, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Upper West Side, New York, NY</t>
-  </si>
-  <si>
-    <t>Malba, Whitestone, NY</t>
-  </si>
-  <si>
-    <t>New Dorp Beach, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Greenridge, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Turtle Bay, New York, NY</t>
-  </si>
-  <si>
-    <t>Sheepshead Bay, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Fieldston, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Kingsbridge, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Todt Hill, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>East New York, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>East Flatbush, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Flatlands, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>West Village, New York, NY</t>
-  </si>
-  <si>
-    <t>SoHo, New York, NY</t>
-  </si>
-  <si>
-    <t>Jamaica, Jamaica, NY</t>
-  </si>
-  <si>
-    <t>Garment District, New York, NY</t>
-  </si>
-  <si>
-    <t>South Ozone Park, South Richmond Hill, NY</t>
-  </si>
-  <si>
-    <t>Oakwood, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Eltingville, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>St. Albans, Saint Albans, NY</t>
-  </si>
-  <si>
-    <t>Inwood, New York, NY</t>
-  </si>
-  <si>
-    <t>Mariner's Harbor, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Gowanus, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>East Elmhurst, East Elmhurst, NY</t>
-  </si>
-  <si>
-    <t>Spuyten Duyvil, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Murray Hill, Flushing, NY</t>
-  </si>
-  <si>
-    <t>East Village, New York, NY</t>
-  </si>
-  <si>
-    <t>Westerleigh, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Greenwich Village, New York, NY</t>
-  </si>
-  <si>
-    <t>Chelsea, New York, NY</t>
-  </si>
-  <si>
-    <t>Bedford Stuyvesant, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Great Kills, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Mill Basin, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Richmond Town, Staten Island, NY</t>
-  </si>
-  <si>
-    <t>Bay Terrace, Bayside, NY</t>
-  </si>
-  <si>
-    <t>Forest Hills, Forest Hills, NY</t>
-  </si>
-  <si>
-    <t>Hell's Kitchen, New York, NY</t>
-  </si>
-  <si>
-    <t>Throggs Neck, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Dyker Heights, Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>Pelham Gardens, Bronx, NY</t>
-  </si>
-  <si>
-    <t>Hollis, Hollis, NY</t>
-  </si>
-  <si>
-    <t>Astoria, Astoria, NY</t>
+    <t>2018 42nd Ave</t>
+  </si>
+  <si>
+    <t>4366 25th St</t>
+  </si>
+  <si>
+    <t>224 Sea Cliff Ave</t>
+  </si>
+  <si>
+    <t>45 Capra Way</t>
+  </si>
+  <si>
+    <t>122 Chicago Way</t>
+  </si>
+  <si>
+    <t>3321 Moraga St</t>
+  </si>
+  <si>
+    <t>2582 Filbert St</t>
+  </si>
+  <si>
+    <t>2446 47th Ave</t>
+  </si>
+  <si>
+    <t>627 Paris St</t>
+  </si>
+  <si>
+    <t>720 Laguna Honda Blvd</t>
+  </si>
+  <si>
+    <t>2219 Pacific Ave</t>
+  </si>
+  <si>
+    <t>1701 Grove St #1</t>
+  </si>
+  <si>
+    <t>70 Crestlake Dr</t>
+  </si>
+  <si>
+    <t>2698 Pacific Ave</t>
+  </si>
+  <si>
+    <t>1125A Church St</t>
+  </si>
+  <si>
+    <t>333 Haight St #3</t>
+  </si>
+  <si>
+    <t>2695 23rd Ave</t>
+  </si>
+  <si>
+    <t>870 Harrison St #405</t>
+  </si>
+  <si>
+    <t>106 Clipper St</t>
+  </si>
+  <si>
+    <t>126 Clayton St</t>
+  </si>
+  <si>
+    <t>1685 Cayuga Ave</t>
+  </si>
+  <si>
+    <t>2828 Vallejo St</t>
+  </si>
+  <si>
+    <t>662 Hearst Ave</t>
+  </si>
+  <si>
+    <t>10 Sea Cliff Ave</t>
+  </si>
+  <si>
+    <t>1921 Washington St</t>
+  </si>
+  <si>
+    <t>607-607A Arkansas St</t>
+  </si>
+  <si>
+    <t>610 Ortega St</t>
+  </si>
+  <si>
+    <t>1695 18th St #308</t>
+  </si>
+  <si>
+    <t>2919 California St</t>
+  </si>
+  <si>
+    <t>4366 26th St</t>
+  </si>
+  <si>
+    <t>1700 Cayuga Ave</t>
+  </si>
+  <si>
+    <t>1836 Mason St</t>
+  </si>
+  <si>
+    <t>855 Folsom St #742</t>
+  </si>
+  <si>
+    <t>1879 23rd Ave</t>
+  </si>
+  <si>
+    <t>140 Cresta Vista Dr</t>
+  </si>
+  <si>
+    <t>32 Rebecca Ln</t>
+  </si>
+  <si>
+    <t>950 Lake St</t>
+  </si>
+  <si>
+    <t>288 Farallones St</t>
+  </si>
+  <si>
+    <t>2839 Pacific Ave</t>
+  </si>
+  <si>
+    <t>345 Twin Peaks Blvd</t>
+  </si>
+  <si>
+    <t>44 Bache St</t>
+  </si>
+  <si>
+    <t>775 Congo St</t>
+  </si>
+  <si>
+    <t>2334 46th Ave</t>
+  </si>
+  <si>
+    <t>1543 McAllister St #5</t>
+  </si>
+  <si>
+    <t>2111 Hyde St #301</t>
+  </si>
+  <si>
+    <t>4258 26th St</t>
+  </si>
+  <si>
+    <t>575 27th St #A</t>
+  </si>
+  <si>
+    <t>1000 Pennsylvania Ave #10</t>
+  </si>
+  <si>
+    <t>181 Baltimore Way</t>
+  </si>
+  <si>
+    <t>2111 Hyde St #304</t>
+  </si>
+  <si>
+    <t>352 17th Ave</t>
+  </si>
+  <si>
+    <t>3239 Webster St</t>
+  </si>
+  <si>
+    <t>151 Hearst Ave</t>
+  </si>
+  <si>
+    <t>119 Prospect Ave</t>
+  </si>
+  <si>
+    <t>731 Noe St</t>
+  </si>
+  <si>
+    <t>348 Eureka St</t>
+  </si>
+  <si>
+    <t>600 Gates St</t>
+  </si>
+  <si>
+    <t>1310 Fulton St #309</t>
+  </si>
+  <si>
+    <t>1670 Kirkwood Ave #B</t>
+  </si>
+  <si>
+    <t>628 Haight St</t>
+  </si>
+  <si>
+    <t>1450 Franklin St #802</t>
+  </si>
+  <si>
+    <t>3276 Harrison St</t>
+  </si>
+  <si>
+    <t>315 Raymond Ave</t>
+  </si>
+  <si>
+    <t>1470 15th St</t>
+  </si>
+  <si>
+    <t>448 Valley St</t>
+  </si>
+  <si>
+    <t>2082 36th Ave</t>
+  </si>
+  <si>
+    <t>9 Perego Ter #9</t>
+  </si>
+  <si>
+    <t>38 Lusk St #2</t>
+  </si>
+  <si>
+    <t>469 27th St</t>
+  </si>
+  <si>
+    <t>520 Natoma St #4</t>
+  </si>
+  <si>
+    <t>556 Funston Ave</t>
+  </si>
+  <si>
+    <t>400 Pioche St</t>
+  </si>
+  <si>
+    <t>100 Parker Ave #301</t>
+  </si>
+  <si>
+    <t>147 Harold Ave</t>
+  </si>
+  <si>
+    <t>80 Beachmont Dr</t>
+  </si>
+  <si>
+    <t>1936 23rd Ave</t>
+  </si>
+  <si>
+    <t>2950 Pacific Ave</t>
+  </si>
+  <si>
+    <t>1189 Tennessee St #404</t>
+  </si>
+  <si>
+    <t>88 Townsend St #315</t>
+  </si>
+  <si>
+    <t>93 Cumberland St</t>
+  </si>
+  <si>
+    <t>1382 44th Ave</t>
+  </si>
+  <si>
+    <t>44 Lloyd St</t>
+  </si>
+  <si>
+    <t>676-678 Ivy St</t>
+  </si>
+  <si>
+    <t>64 Marietta Dr</t>
+  </si>
+  <si>
+    <t>964 Avalon Ave</t>
+  </si>
+  <si>
+    <t>520 Natoma St #11</t>
+  </si>
+  <si>
+    <t>1863 19th Ave</t>
+  </si>
+  <si>
+    <t>1166 De Haro St</t>
+  </si>
+  <si>
+    <t>380 Monterey Blvd #202</t>
+  </si>
+  <si>
+    <t>2250 24th St #336</t>
+  </si>
+  <si>
+    <t>1629 Pierce St</t>
+  </si>
+  <si>
+    <t>4800 3rd St #202</t>
+  </si>
+  <si>
+    <t>532 Myra Way</t>
+  </si>
+  <si>
+    <t>373 Capp St</t>
+  </si>
+  <si>
+    <t>551 Hudson Ave #201</t>
+  </si>
+  <si>
+    <t>17 Osgood Pl</t>
+  </si>
+  <si>
+    <t>3986 18th St</t>
+  </si>
+  <si>
+    <t>4343 3rd St #404</t>
+  </si>
+  <si>
+    <t>1001 Pine St #610</t>
+  </si>
+  <si>
+    <t>150 32nd Ave</t>
+  </si>
+  <si>
+    <t>3191 California St</t>
+  </si>
+  <si>
+    <t>2555 Union St</t>
+  </si>
+  <si>
+    <t>454 Frederick St</t>
+  </si>
+  <si>
+    <t>2275 28th Ave</t>
+  </si>
+  <si>
+    <t>139 Stillman St #6</t>
+  </si>
+  <si>
+    <t>60 Rausch St #201</t>
+  </si>
+  <si>
+    <t>2775 Green St</t>
+  </si>
+  <si>
+    <t>1354-1356 48th Ave</t>
+  </si>
+  <si>
+    <t>3171 California St</t>
+  </si>
+  <si>
+    <t>1351-1353 48th Ave</t>
+  </si>
+  <si>
+    <t>651 29th St</t>
+  </si>
+  <si>
+    <t>153 Wool St</t>
+  </si>
+  <si>
+    <t>4614 18th St #A</t>
+  </si>
+  <si>
+    <t>1089 Chestnut St</t>
+  </si>
+  <si>
+    <t>2900 Pacific Ave #202</t>
+  </si>
+  <si>
+    <t>1506 25th St</t>
+  </si>
+  <si>
+    <t>262 Downey St</t>
+  </si>
+  <si>
+    <t>148 Corwin St</t>
+  </si>
+  <si>
+    <t>898 Francisco St</t>
+  </si>
+  <si>
+    <t>1828 Page St</t>
+  </si>
+  <si>
+    <t>Outer Sunset, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Noe Valley, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Seacliff, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Marina, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Crocker Amazon, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Cow Hollow, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Excelsior, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Laguna Honda, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Pacific Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Panhandle, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Parkside, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Dolores Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Mint Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>South of Market, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Outer Mission, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Sunnyside, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Potrero Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Golden Gate Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Lower Pacific Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Russian Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Sherwood Forest, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Bayview, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Lake, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Oceanview, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Clarendon Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Holly Park, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Miraloma Park, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Alamo Square, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Inner Richmond, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Bernal Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Eureka Valley, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Western Addition, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Lower Haight, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Cathedral Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Visitacion Valley, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Mission, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Upper Market, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>University Mound, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Laurel Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Ingleside, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Merced Manor, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Dogpatch, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>South Beach, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Mission Dolores, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Duboce Triangle, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Hayes Valley, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Silver Terrace, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Hunters Point, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>North Beach, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Castro, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Lower Nob Hill, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Cole Valley, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Fairmount, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Ashbury Heights, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Haight, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Studio</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Studio</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>$169,000,000</t>
-  </si>
-  <si>
-    <t>$379,000</t>
-  </si>
-  <si>
-    <t>$589,000</t>
-  </si>
-  <si>
-    <t>$375,000</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>$899,000</t>
+  </si>
+  <si>
+    <t>$1,795,000</t>
+  </si>
+  <si>
+    <t>$15,375,000</t>
+  </si>
+  <si>
+    <t>$10,300,000</t>
+  </si>
+  <si>
+    <t>$1,095,000</t>
+  </si>
+  <si>
+    <t>$1,185,000</t>
+  </si>
+  <si>
+    <t>$46,000,000</t>
+  </si>
+  <si>
+    <t>$1,295,000</t>
+  </si>
+  <si>
+    <t>$988,000</t>
+  </si>
+  <si>
+    <t>$1,995,000</t>
+  </si>
+  <si>
+    <t>$6,850,000</t>
+  </si>
+  <si>
+    <t>$995,000</t>
+  </si>
+  <si>
+    <t>$1,495,000</t>
+  </si>
+  <si>
+    <t>$25,800,000</t>
+  </si>
+  <si>
+    <t>$695,000</t>
+  </si>
+  <si>
+    <t>$850,000</t>
+  </si>
+  <si>
+    <t>$1,399,000</t>
+  </si>
+  <si>
+    <t>$369,563</t>
+  </si>
+  <si>
+    <t>$1,395,000</t>
+  </si>
+  <si>
+    <t>$1,595,000</t>
+  </si>
+  <si>
+    <t>$1,049,000</t>
+  </si>
+  <si>
+    <t>$28,000,000</t>
+  </si>
+  <si>
+    <t>$945,000</t>
+  </si>
+  <si>
+    <t>$6,500,000</t>
+  </si>
+  <si>
+    <t>$4,995,000</t>
+  </si>
+  <si>
+    <t>$1,150,000</t>
+  </si>
+  <si>
+    <t>$4,375,000</t>
+  </si>
+  <si>
+    <t>$257,158</t>
+  </si>
+  <si>
+    <t>$3,500,000</t>
+  </si>
+  <si>
+    <t>$3,295,000</t>
+  </si>
+  <si>
+    <t>$1,148,999</t>
+  </si>
+  <si>
+    <t>$1,250,000</t>
+  </si>
+  <si>
+    <t>$485,000</t>
+  </si>
+  <si>
+    <t>$1,498,000</t>
+  </si>
+  <si>
+    <t>$442,418</t>
+  </si>
+  <si>
+    <t>$999,000</t>
+  </si>
+  <si>
+    <t>$16,950,000</t>
+  </si>
+  <si>
+    <t>$4,850,000</t>
+  </si>
+  <si>
+    <t>$849,999</t>
+  </si>
+  <si>
+    <t>$1,499,000</t>
+  </si>
+  <si>
+    <t>$799,000</t>
+  </si>
+  <si>
+    <t>$729,000</t>
+  </si>
+  <si>
+    <t>$1,575,000</t>
+  </si>
+  <si>
+    <t>$1,195,000</t>
+  </si>
+  <si>
+    <t>$1,475,000</t>
+  </si>
+  <si>
+    <t>$2,795,000</t>
+  </si>
+  <si>
+    <t>$2,798,000</t>
+  </si>
+  <si>
+    <t>$5,195,000</t>
+  </si>
+  <si>
+    <t>$1,159,000</t>
+  </si>
+  <si>
+    <t>$1,799,000</t>
+  </si>
+  <si>
+    <t>$2,495,000</t>
+  </si>
+  <si>
+    <t>$2,095,000</t>
+  </si>
+  <si>
+    <t>$675,000</t>
+  </si>
+  <si>
+    <t>$1,695,000</t>
+  </si>
+  <si>
+    <t>$688,000</t>
+  </si>
+  <si>
+    <t>$1,290,000</t>
+  </si>
+  <si>
+    <t>$2,195,000</t>
+  </si>
+  <si>
+    <t>$1,175,000</t>
+  </si>
+  <si>
+    <t>$1,249,000</t>
+  </si>
+  <si>
+    <t>$339,000</t>
+  </si>
+  <si>
+    <t>$3,850,000</t>
+  </si>
+  <si>
+    <t>$1,050,000</t>
+  </si>
+  <si>
+    <t>$1,895,000</t>
+  </si>
+  <si>
+    <t>$29,500,000</t>
+  </si>
+  <si>
+    <t>$425,659</t>
+  </si>
+  <si>
+    <t>$5,995,000</t>
+  </si>
+  <si>
+    <t>$1,289,000</t>
+  </si>
+  <si>
+    <t>$990,000</t>
+  </si>
+  <si>
+    <t>$1,675,000</t>
+  </si>
+  <si>
+    <t>$998,000</t>
+  </si>
+  <si>
+    <t>$1,490,000</t>
+  </si>
+  <si>
+    <t>$595,000</t>
+  </si>
+  <si>
+    <t>$630,000</t>
+  </si>
+  <si>
+    <t>$286,781</t>
   </si>
   <si>
     <t>$699,000</t>
   </si>
   <si>
-    <t>$799,999</t>
-  </si>
-  <si>
-    <t>$59,000,000</t>
-  </si>
-  <si>
-    <t>$1,250,000</t>
-  </si>
-  <si>
-    <t>$66,000,000</t>
-  </si>
-  <si>
-    <t>$63,000,000</t>
-  </si>
-  <si>
-    <t>$1,595,000</t>
-  </si>
-  <si>
-    <t>$395,000</t>
-  </si>
-  <si>
-    <t>$345,000</t>
-  </si>
-  <si>
-    <t>$495,000</t>
-  </si>
-  <si>
-    <t>$250,000</t>
-  </si>
-  <si>
-    <t>$519,999</t>
-  </si>
-  <si>
-    <t>$185,000</t>
-  </si>
-  <si>
-    <t>$2,998,000</t>
-  </si>
-  <si>
-    <t>$650,000</t>
-  </si>
-  <si>
-    <t>$79,000,000</t>
-  </si>
-  <si>
-    <t>$325,000</t>
-  </si>
-  <si>
-    <t>$45,000,000</t>
-  </si>
-  <si>
-    <t>$1,688,000</t>
-  </si>
-  <si>
-    <t>$489,000</t>
-  </si>
-  <si>
-    <t>$119,000</t>
-  </si>
-  <si>
-    <t>$40,000,000</t>
-  </si>
-  <si>
-    <t>$675,000</t>
-  </si>
-  <si>
-    <t>$425,000</t>
-  </si>
-  <si>
-    <t>$239,000</t>
-  </si>
-  <si>
-    <t>$595,000</t>
-  </si>
-  <si>
-    <t>$9,800,000</t>
-  </si>
-  <si>
-    <t>$299,000</t>
-  </si>
-  <si>
-    <t>$700,000</t>
-  </si>
-  <si>
-    <t>$450,000</t>
-  </si>
-  <si>
-    <t>$769,000</t>
-  </si>
-  <si>
-    <t>$400,000</t>
-  </si>
-  <si>
-    <t>$279,000</t>
-  </si>
-  <si>
-    <t>$11,998,000</t>
-  </si>
-  <si>
-    <t>$28,000,000</t>
-  </si>
-  <si>
-    <t>$17,995,000</t>
-  </si>
-  <si>
-    <t>$200,000</t>
-  </si>
-  <si>
-    <t>$999,000</t>
-  </si>
-  <si>
-    <t>$389,000</t>
-  </si>
-  <si>
-    <t>$42,000,000</t>
-  </si>
-  <si>
-    <t>$760,000</t>
-  </si>
-  <si>
-    <t>$550,000</t>
-  </si>
-  <si>
-    <t>$859,900</t>
-  </si>
-  <si>
-    <t>$39,000,000</t>
-  </si>
-  <si>
-    <t>$575,000</t>
-  </si>
-  <si>
-    <t>$240,000</t>
-  </si>
-  <si>
-    <t>$599,000</t>
-  </si>
-  <si>
-    <t>$1,900,000</t>
-  </si>
-  <si>
-    <t>$799,000</t>
-  </si>
-  <si>
-    <t>$4,495,000</t>
-  </si>
-  <si>
-    <t>$23,000,000</t>
-  </si>
-  <si>
-    <t>$1,350,000</t>
-  </si>
-  <si>
-    <t>$459,000</t>
-  </si>
-  <si>
-    <t>$295,000</t>
-  </si>
-  <si>
-    <t>$899,000</t>
-  </si>
-  <si>
-    <t>$499,000</t>
-  </si>
-  <si>
-    <t>$739,000</t>
-  </si>
-  <si>
-    <t>$9,850,000</t>
-  </si>
-  <si>
-    <t>$648,000</t>
-  </si>
-  <si>
-    <t>$25,000,000</t>
-  </si>
-  <si>
-    <t>$1,288,000</t>
-  </si>
-  <si>
-    <t>$649,417</t>
-  </si>
-  <si>
-    <t>$2,200,000</t>
-  </si>
-  <si>
-    <t>$669,000</t>
-  </si>
-  <si>
-    <t>$849,900</t>
-  </si>
-  <si>
-    <t>$775,000</t>
-  </si>
-  <si>
-    <t>$55,000,000</t>
-  </si>
-  <si>
-    <t>$1,398,000</t>
-  </si>
-  <si>
-    <t>$690,000</t>
-  </si>
-  <si>
-    <t>$715,000</t>
-  </si>
-  <si>
-    <t>$649,000</t>
-  </si>
-  <si>
-    <t>$849,999</t>
+    <t>$1,975,000</t>
+  </si>
+  <si>
+    <t>$795,000</t>
+  </si>
+  <si>
+    <t>$497,576</t>
+  </si>
+  <si>
+    <t>$1,198,000</t>
+  </si>
+  <si>
+    <t>$3,995,000</t>
+  </si>
+  <si>
+    <t>$1,188,000</t>
+  </si>
+  <si>
+    <t>$12,600,000</t>
+  </si>
+  <si>
+    <t>$749,000</t>
+  </si>
+  <si>
+    <t>$2,099,000</t>
+  </si>
+  <si>
+    <t>$8,750,000</t>
+  </si>
+  <si>
+    <t>$1,199,000</t>
+  </si>
+  <si>
+    <t>$7,000,000</t>
+  </si>
+  <si>
+    <t>$11,900,000</t>
+  </si>
+  <si>
+    <t>$5,300,000</t>
+  </si>
+  <si>
+    <t>$1,699,000</t>
+  </si>
+  <si>
+    <t>$9,950,000</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1139,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1156,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1173,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1190,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1207,16 +1330,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1224,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1241,16 +1364,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1258,16 +1381,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1275,16 +1398,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1292,16 +1415,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1309,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1326,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1343,16 +1466,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1360,16 +1483,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1377,16 +1500,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1394,16 +1517,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1411,16 +1534,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1428,16 +1551,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1445,16 +1568,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1462,16 +1585,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1479,16 +1602,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1496,16 +1619,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1513,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1530,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1547,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1564,16 +1687,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1581,16 +1704,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1598,16 +1721,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1615,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1632,16 +1755,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1649,16 +1772,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1666,16 +1789,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1683,16 +1806,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1700,16 +1823,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1717,16 +1840,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1734,16 +1857,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1751,16 +1874,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1768,16 +1891,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1785,16 +1908,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1802,16 +1925,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1819,16 +1942,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1836,16 +1959,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1853,16 +1976,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1870,16 +1993,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1887,16 +2010,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1904,16 +2027,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1921,16 +2044,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1938,16 +2061,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1955,16 +2078,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1972,16 +2095,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1989,16 +2112,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2006,16 +2129,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2023,16 +2146,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2040,16 +2163,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2057,16 +2180,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2074,16 +2197,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2091,16 +2214,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2108,16 +2231,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2125,16 +2248,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2142,16 +2265,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2159,16 +2282,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2176,16 +2299,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2193,16 +2316,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2210,16 +2333,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2227,16 +2350,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2244,16 +2367,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2261,16 +2384,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2278,13 +2401,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
         <v>200</v>
@@ -2295,16 +2418,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2312,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2329,16 +2452,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2346,16 +2469,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2363,16 +2486,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2380,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2397,16 +2520,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2414,16 +2537,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2431,13 +2554,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2448,16 +2571,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2465,16 +2588,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2482,16 +2605,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2499,16 +2622,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E83" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2516,16 +2639,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2533,16 +2656,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2550,16 +2673,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2567,16 +2690,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2584,16 +2707,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2601,16 +2724,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2618,16 +2741,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2635,16 +2758,526 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" t="s">
+        <v>180</v>
+      </c>
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" t="s">
+        <v>181</v>
+      </c>
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" t="s">
+        <v>184</v>
+      </c>
+      <c r="E108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" t="s">
+        <v>180</v>
+      </c>
+      <c r="E110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" t="s">
+        <v>181</v>
+      </c>
+      <c r="E113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
         <v>155</v>
       </c>
-      <c r="D91" t="s">
-        <v>160</v>
-      </c>
-      <c r="E91" t="s">
-        <v>201</v>
+      <c r="C114" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" t="s">
+        <v>183</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+      <c r="E116" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" t="s">
+        <v>181</v>
+      </c>
+      <c r="E117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
